--- a/medicine/Enfance/René_Guillot/René_Guillot.xlsx
+++ b/medicine/Enfance/René_Guillot/René_Guillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Guillot</t>
+          <t>René_Guillot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Guillot (Courcoury, 24 janvier 1900 - Paris, 26 mars 1969) est un écrivain français, auteur de nombreux livres pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Guillot</t>
+          <t>René_Guillot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 24 janvier 1900 à Courcoury, en Charente-Maritime, René Guillot, fils d'un instituteur, devient également enseignant: il est professeur de mathématiques lorsqu'il part travailler au Sénégal. Il passera vingt années en Afrique, continent qui lui inspirera de nombreux romans et recueils de contes tels que Contes d'Afrique (1933), Contes de la brousse fauve (1945), Chasse de brousse : savanes et sortilèges (1948), etc.
 En 1946, il reçoit le prix du roman d'aventures pour son roman Les Équipages de Peter Hill. 
-À partir de l'année scolaire 1949-1950, il était professeur de mathématiques au Petit Lycée Condorcet (rue d'Amsterdam) à Paris. Il y restera en poste jusqu'à sa retraite en 1960[1].
-En 1959, il publie le roman Crin-Blanc d'après le film d'Albert Lamorisse, Crin-Blanc (1952), qui est un succès. Il reçoit le prix Hans Christian Andersen, la plus haute distinction internationale de littérature pour la jeunesse, en 1964 et devient le premier auteur français distingué par ce prix[2]. Lors de l'édition suivante, une seconde catégorie est créée en illustration, qui sera remportée elle aussi une fois par un français, Tomi Ungerer en 1998[3]. 
+À partir de l'année scolaire 1949-1950, il était professeur de mathématiques au Petit Lycée Condorcet (rue d'Amsterdam) à Paris. Il y restera en poste jusqu'à sa retraite en 1960.
+En 1959, il publie le roman Crin-Blanc d'après le film d'Albert Lamorisse, Crin-Blanc (1952), qui est un succès. Il reçoit le prix Hans Christian Andersen, la plus haute distinction internationale de littérature pour la jeunesse, en 1964 et devient le premier auteur français distingué par ce prix. Lors de l'édition suivante, une seconde catégorie est créée en illustration, qui sera remportée elle aussi une fois par un français, Tomi Ungerer en 1998. 
 Deux de ses romans ont été adaptés au cinéma par Patrick Grandperret : L'Enfant lion (1993,  d'après Sirga la lionne) et Le Maître des éléphants (1995, d'après le roman du même titre de 1960). René Guillot s'éteint le 26 mars 1969 à Paris.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Guillot</t>
+          <t>René_Guillot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,29 +560,168 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Note : Liste non exhaustive, avec date de la première édition.
-Série Grichka
-1958 : Grichka et son ours, Éditions Hachette, collection Idéal-Bibliothèque, illustrations de J.- P. Ariel (Prix Enfance du monde 1958)[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : Liste non exhaustive, avec date de la première édition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Guillot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Guillot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Grichka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1958 : Grichka et son ours, Éditions Hachette, collection Idéal-Bibliothèque, illustrations de J.- P. Ariel (Prix Enfance du monde 1958)
 1960 : Grichka et les loups, Éd. Hachette, Coll. Bibliothèque verte, illustrations de J.- P. Ariel.
 1961 : La Marque de Grichka, Éd. Hachette, Coll. Idéal-Bibliothèque, illustrations de J.- P. Ariel.
-1964 : Grichka et les Turbans Jaunes, Éd. Hachette, Coll. Idéal-Bibliothèque, illustrations de J.- P. Ariel.
-Série Kiriki
-1968 : Kiriki le lutin, Éd. Delagrave, Illustrations de Paul Durand.
+1964 : Grichka et les Turbans Jaunes, Éd. Hachette, Coll. Idéal-Bibliothèque, illustrations de J.- P. Ariel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Guillot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Guillot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Kiriki</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1968 : Kiriki le lutin, Éd. Delagrave, Illustrations de Paul Durand.
 1969 : Kiriki et la flèche magique, Éd. Delagrave.
-1970 : Kiriki et le nain vert, Éd. Delagrave.
-Série Un petit chien
-1965 : Un petit chien et ses copains, Éd. Hachette, Coll. Nouvelle Bibliothèque rose, illustrations de Jacques Poirier.
+1970 : Kiriki et le nain vert, Éd. Delagrave.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Guillot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Guillot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Un petit chien</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1965 : Un petit chien et ses copains, Éd. Hachette, Coll. Nouvelle Bibliothèque rose, illustrations de Jacques Poirier.
 1965 : Le Noël d'un petit chien, Éd. Hachette, Coll. Nouvelle Bibliothèque rose no 175, illustrations de Jacques Poirier.
 1966 : Petite Histoire d'un chien, Éd. Hachette, Coll. Nouvelle Bibliothèque rose no 147, illustrations de Jacques Poirier.
 1966 : Un petit chien au cirque, Éd. Hachette, Coll. Nouvelle Bibliothèque rose no 216, illustrations de Jacques Poirier.
 1967 : Un petit chien au zoo, Éd. Hachette, Coll. Nouvelle Bibliothèque rose no 249, illustrations de Jacques Poirier.
 1968 : Un petit chien chez les lions, Éd. Hachette, Coll. Nouvelle Bibliothèque rose no 277, illustrations de Jacques Poirier.
 1969 : Un petit chien chez les lutins, Éd. Hachette, Coll. Nouvelle Bibliothèque rose no 310.
-1970 : Un petit chien va dans la lune, Éd. Hachette, Coll. Idéal-Bibliothèque no 361 – illustrations de Jacques Poirier.
-Romans hors-série
-1932 : Histoire d'un Blanc qui s'était fait Nègre, Éditeur : Rieder, Prosateurs français contemporains.
+1970 : Un petit chien va dans la lune, Éd. Hachette, Coll. Idéal-Bibliothèque no 361 – illustrations de Jacques Poirier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Guillot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Guillot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans hors-série</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1932 : Histoire d'un Blanc qui s'était fait Nègre, Éditeur : Rieder, Prosateurs français contemporains.
 1933 : Contes d'Afrique, Gorée, Imprimerie du Gouvernement général.
 1934 : Taillis, Éditeur : Rieder, Sequana.
 1936 : Chansons de ma terre, Éditeur: imprimerie R. Bussière.
@@ -578,7 +731,7 @@
 1944 : Visages de sable, Éditeur Ars Africae, no 78.
 1945 : Contes de la Brousse fauve, Éditions Arthaud.
 1946 : Contes et légendes d’Afrique noire, Société d’Éditions Géographiques, Maritimes et Coloniales.
-1946 : Les Équipages de Peter Hill, Éditions Arc-En-Ciel, Coll. Aventures, illustrations de G. Barret[5]. (prix du roman d'aventures)
+1946 : Les Équipages de Peter Hill, Éditions Arc-En-Ciel, Coll. Aventures, illustrations de G. Barret. (prix du roman d'aventures)
 1947 : Le Masque de sable, Éditeur : Sfelt.
 1948 : Chasse de brousse, savanes et sortilèges, Librairie des Champs-Élysées.
 1948 : Maraouna du Bambassou, Éditions de l'Amitié, Coll. Heures Joyeuses, Illustré par Pierre Collot.
@@ -610,7 +763,7 @@
 1956 : Manoa (L'affaire Des Ours), Éd. G. P., Coll. Rouge et Bleue no 40, illustrations de Sainte-Croix.
 1956 : Les Éléphants de Sargabal, Éd. Delagrave, illustrations de Paul Durand.
 1956 : Le 397e Éléphant Blanc, Éd. G. P., Coll. Rouge et Bleue.
-1956 : Le Clan des bêtes sauvages, Éd. Hachette, illustrations de Pierre Probst[6].
+1956 : Le Clan des bêtes sauvages, Éd. Hachette, illustrations de Pierre Probst.
 1956 : Tam-tam de Kotokro, Éd. G. P., Coll. Rouge et Or no 105, Illustrations de Raoul Auger.
 1956 : Prince de la jungle, Éd. Hachette, Coll. Bibliothèque Hachette no 1, Illustrations de Pierre Probst.
 1956 : Encyclopédie Larousse des enfants, Éd. Larousse.
@@ -674,31 +827,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Guillot</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>René_Guillot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Guillot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prix du roman colonial en 1938 pour Ras el Gua, poste du sud, roman des sables.
 Prix du roman d'aventures en 1946 pour Les Équipages du Peter Hill.
